--- a/图片/大论文图片/画图_2014年全球装机分布图.xlsx
+++ b/图片/大论文图片/画图_2014年全球装机分布图.xlsx
@@ -223,11 +223,31 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2858595800524935E-2"/>
+                  <c:y val="4.3146689997083697E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11357545931758525"/>
-                  <c:y val="-0.17466717701953921"/>
+                  <c:x val="0.1114245406824147"/>
+                  <c:y val="-0.13763013998250218"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -246,8 +266,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12098272090988627"/>
-                  <c:y val="-0.17904892096821232"/>
+                  <c:x val="-6.5128390201224878E-2"/>
+                  <c:y val="-3.5530402449693792E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -266,8 +286,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17761548556430445"/>
-                  <c:y val="1.8837124526100903E-2"/>
+                  <c:x val="-8.0717847769028891E-2"/>
+                  <c:y val="6.5133420822397203E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -286,8 +306,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13363867016622921"/>
-                  <c:y val="0.17012941090696995"/>
+                  <c:x val="-8.0250218722659722E-2"/>
+                  <c:y val="0.1145738553514144"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -306,8 +326,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8226159230096242E-3"/>
-                  <c:y val="0.17584864391951005"/>
+                  <c:x val="-0.148732939632546"/>
+                  <c:y val="9.1819772528433704E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
